--- a/Raj Chudasama/2022-12-06/ALDFWTP Guest Services/EXPECTED ARRIVALS 12-06-22.xlsx
+++ b/Raj Chudasama/2022-12-06/ALDFWTP Guest Services/EXPECTED ARRIVALS 12-06-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="77">
   <si>
     <t>Guest Name</t>
   </si>
@@ -211,28 +211,22 @@
     <t>05-Dec-22</t>
   </si>
   <si>
-    <t xml:space="preserve"> 17-Nov-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 06-Dec-22</t>
+    <t>17-Nov-22</t>
   </si>
   <si>
     <t>28-Mar-22</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05-Dec-22</t>
-  </si>
-  <si>
     <t>27-Sep-22</t>
   </si>
   <si>
-    <t xml:space="preserve"> 28-Nov-22</t>
+    <t>28-Nov-22</t>
   </si>
   <si>
     <t>26-Apr-22</t>
   </si>
   <si>
-    <t xml:space="preserve"> 27-Apr-22</t>
+    <t>27-Apr-22</t>
   </si>
   <si>
     <t>08-Dec-22</t>
@@ -657,10 +651,10 @@
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -680,10 +674,10 @@
         <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -703,10 +697,10 @@
         <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -726,10 +720,10 @@
         <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -749,10 +743,10 @@
         <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -772,10 +766,10 @@
         <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -795,10 +789,10 @@
         <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -818,10 +812,10 @@
         <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -841,10 +835,10 @@
         <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -864,10 +858,10 @@
         <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -884,13 +878,13 @@
         <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -910,10 +904,10 @@
         <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -933,10 +927,10 @@
         <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -959,10 +953,10 @@
         <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -979,13 +973,13 @@
         <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1005,10 +999,10 @@
         <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1028,13 +1022,13 @@
         <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1051,13 +1045,13 @@
         <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1077,10 +1071,10 @@
         <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1100,10 +1094,10 @@
         <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1126,10 +1120,10 @@
         <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1146,13 +1140,13 @@
         <v>59</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1172,10 +1166,10 @@
         <v>62</v>
       </c>
       <c r="H24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1195,10 +1189,10 @@
         <v>62</v>
       </c>
       <c r="H25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1215,13 +1209,13 @@
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1241,10 +1235,10 @@
         <v>62</v>
       </c>
       <c r="H27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1261,13 +1255,13 @@
         <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1287,10 +1281,10 @@
         <v>62</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1313,10 +1307,10 @@
         <v>62</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1339,10 +1333,10 @@
         <v>62</v>
       </c>
       <c r="H31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1365,10 +1359,10 @@
         <v>62</v>
       </c>
       <c r="H32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1391,10 +1385,10 @@
         <v>62</v>
       </c>
       <c r="H33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1411,13 +1405,13 @@
         <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1434,13 +1428,13 @@
         <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
